--- a/ISO - BSIT - 37- Daily Timesheet .xlsx
+++ b/ISO - BSIT - 37- Daily Timesheet .xlsx
@@ -92,10 +92,10 @@
     <t>Monday</t>
   </si>
   <si>
-    <t>Data from Excel can be read, write to CSV and stored in a database.</t>
-  </si>
-  <si>
-    <t>I created a Java program that uses XSSFWorkbook to read data from Excel and write it to a CSV file. Then the data is read from the CSV file once more and stored in a MySQL database. Here, I developed a program that uses Excel fields to generate a table and an insert query to add all non-empty data to the database. This allows for the easy to insert huge quantity of data from Excel files to the database.</t>
+    <t>Excel data can be read, write to CSV and stored in a database.</t>
+  </si>
+  <si>
+    <t>Today, I have completed my task on using XSSFWorkbook reading/writing Excel and CSV data to the MySQL database. Below is the brief about my task, Created a Java program to perform reading/writing operations on Excel and CSV data and store the reading data to the MySQL database. Here I created a program that helps users insert any kind of dataset into a database. This is achieved through first, create a MySQL table query based on Excel fields and create an insert query based on Excel fields. Then filter only non-empty rows from Excel data and insert the data one by one through looping. Now have a clear idea about reading/writing Excel data and how to insert Excel data into a MySQL database.</t>
   </si>
   <si>
     <t>9:15Am-</t>
@@ -1217,8 +1217,8 @@
   <sheetPr/>
   <dimension ref="A1:AW41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1399,7 +1399,7 @@
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
     </row>
-    <row r="6" ht="135" spans="1:7">
+    <row r="6" ht="225" spans="1:7">
       <c r="A6" s="10" t="s">
         <v>19</v>
       </c>

--- a/ISO - BSIT - 37- Daily Timesheet .xlsx
+++ b/ISO - BSIT - 37- Daily Timesheet .xlsx
@@ -98,7 +98,7 @@
     <t>Today, I have completed my task on using XSSFWorkbook reading/writing Excel and CSV data to the MySQL database. Below is the brief about my task, Created a Java program to perform reading/writing operations on Excel and CSV data and store the reading data to the MySQL database. Here I created a program that helps users insert any kind of dataset into a database. This is achieved through first, create a MySQL table query based on Excel fields and create an insert query based on Excel fields. Then filter only non-empty rows from Excel data and insert the data one by one through looping. Now have a clear idea about reading/writing Excel data and how to insert Excel data into a MySQL database.</t>
   </si>
   <si>
-    <t>9:15Am-</t>
+    <t xml:space="preserve">9:15Am - </t>
   </si>
 </sst>
 </file>
@@ -1218,7 +1218,7 @@
   <dimension ref="A1:AW41"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>

--- a/ISO - BSIT - 37- Daily Timesheet .xlsx
+++ b/ISO - BSIT - 37- Daily Timesheet .xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t xml:space="preserve">                            BLUESCOPE INFORMATION TECHNOLOGY PVT LTD                                       Form No: BSIT/37/ R0  </t>
   </si>
@@ -98,7 +98,22 @@
     <t>Today, I have completed my task on using XSSFWorkbook reading/writing Excel and CSV data to the MySQL database. Below is the brief about my task, Created a Java program to perform reading/writing operations on Excel and CSV data and store the reading data to the MySQL database. Here I created a program that helps users insert any kind of dataset into a database. This is achieved through first, create a MySQL table query based on Excel fields and create an insert query based on Excel fields. Then filter only non-empty rows from Excel data and insert the data one by one through looping. Now have a clear idea about reading/writing Excel data and how to insert Excel data into a MySQL database.</t>
   </si>
   <si>
-    <t xml:space="preserve">9:15Am - </t>
+    <t>9:15Am - 8:10PM</t>
+  </si>
+  <si>
+    <t>21-01-2025</t>
+  </si>
+  <si>
+    <t>Tuesday</t>
+  </si>
+  <si>
+    <t>Getting car details using Collections in Java</t>
+  </si>
+  <si>
+    <t>Today I have completed my task on collections in Java. I created a Java program to retrieve automobile information from the collections, including model, price, and other parameters. One of the examples I described here is that if a user types in the name of a car, the model of the car will be displayed. If the user chooses a model, the model's details will be displayed in the console. Make the consumer choose a different car if they wish to do so while choosing a model. Now have a clear idea about collections in Java.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9:17AM - </t>
   </si>
 </sst>
 </file>
@@ -1217,8 +1232,8 @@
   <sheetPr/>
   <dimension ref="A1:AW41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1418,12 +1433,22 @@
       <c r="F6" s="10"/>
       <c r="G6" s="10"/>
     </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="10"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
+    <row r="7" ht="165" spans="1:7">
+      <c r="A7" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>28</v>
+      </c>
       <c r="F7" s="10"/>
       <c r="G7" s="10"/>
     </row>

--- a/ISO - BSIT - 37- Daily Timesheet .xlsx
+++ b/ISO - BSIT - 37- Daily Timesheet .xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t xml:space="preserve">                            BLUESCOPE INFORMATION TECHNOLOGY PVT LTD                                       Form No: BSIT/37/ R0  </t>
   </si>
@@ -113,7 +113,22 @@
     <t>Today I have completed my task on collections in Java. I created a Java program to retrieve automobile information from the collections, including model, price, and other parameters. One of the examples I described here is that if a user types in the name of a car, the model of the car will be displayed. If the user chooses a model, the model's details will be displayed in the console. Make the consumer choose a different car if they wish to do so while choosing a model. Now have a clear idea about collections in Java.</t>
   </si>
   <si>
-    <t xml:space="preserve">9:17AM - </t>
+    <t>9:17AM - 6:30PM</t>
+  </si>
+  <si>
+    <t>22-01-2025</t>
+  </si>
+  <si>
+    <t>Wednesday</t>
+  </si>
+  <si>
+    <t>Creating a RestAPI to handle get and post methods without using servlets and springboot.</t>
+  </si>
+  <si>
+    <t>Today, I have completed my task on creating a restapi without using Spring Boot or servlets. Created a Java program to develop a restapi to process posts and retrieve requests from Postman without the use of servlets and springboot. I retrieved data from a database using the get method and added new data to the database using the post function.  To manage the get and post functions, a new localhost server is created using HttpServer. Database insert and select operations are handled via JDBC. Postman input via HTTPServer is in string type, JSON format facilitates the handling of input data, so JsonParser is used to convert the string type data to JSON format. This makes it simple to send and receive requests without the need for servlets or springboot. Now have a clear idea of using HttpServer to process requests and understand how to create a get and post without the need for servlets and springboot.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9:15 AM - </t>
   </si>
 </sst>
 </file>
@@ -1232,8 +1247,8 @@
   <sheetPr/>
   <dimension ref="A1:AW41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1452,12 +1467,22 @@
       <c r="F7" s="10"/>
       <c r="G7" s="10"/>
     </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="10"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
+    <row r="8" ht="300" spans="1:7">
+      <c r="A8" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>33</v>
+      </c>
       <c r="F8" s="10"/>
       <c r="G8" s="10"/>
     </row>
